--- a/data/trans_camb/P43E_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P43E_R-Edad-trans_camb.xlsx
@@ -572,7 +572,7 @@
         <v>6.195018424568866</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-10.62489364077638</v>
+        <v>-10.62489364077639</v>
       </c>
     </row>
     <row r="5">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.461016920832772</v>
+        <v>-2.56743869230883</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-31.06338347109916</v>
+        <v>-31.61998824139885</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.14415369767222</v>
+        <v>14.34760928826645</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>7.156652465320068</v>
+        <v>7.662461787584632</v>
       </c>
     </row>
     <row r="7">
@@ -614,7 +614,7 @@
         <v>0.0792677449243267</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1359497746810616</v>
+        <v>-0.1359497746810618</v>
       </c>
     </row>
     <row r="8">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.04090150863463028</v>
+        <v>-0.03145736501064983</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3787529869420934</v>
+        <v>-0.3896002260395791</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1924375829272459</v>
+        <v>0.1978268001040052</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.0927078245590712</v>
+        <v>0.102390226079257</v>
       </c>
     </row>
     <row r="10">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4334201984030496</v>
+        <v>0.3538239857029811</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.228525604697779</v>
+        <v>-7.718451082099708</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.32518529700372</v>
+        <v>12.45822874085989</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.696978341034908</v>
+        <v>8.66525419259434</v>
       </c>
     </row>
     <row r="13">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.005803854407985264</v>
+        <v>0.005247089380402315</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1072685183964339</v>
+        <v>-0.1030243494186333</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.1749335690435741</v>
+        <v>0.1798184492482157</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1082373250992753</v>
+        <v>0.119991749604699</v>
       </c>
     </row>
     <row r="16">
@@ -748,7 +748,7 @@
         <v>6.459049199765888</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-1.082146137142315</v>
+        <v>-1.082146137142326</v>
       </c>
     </row>
     <row r="17">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.370675829671574</v>
+        <v>1.16571657976401</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-7.175017867738423</v>
+        <v>-6.586661791909044</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.27721191114735</v>
+        <v>11.55264052546076</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.683757536879178</v>
+        <v>4.710601003672138</v>
       </c>
     </row>
     <row r="19">
@@ -790,7 +790,7 @@
         <v>0.08782496246975827</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.0147141538858014</v>
+        <v>-0.01471415388580155</v>
       </c>
     </row>
     <row r="20">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.0192535226495603</v>
+        <v>0.01531023212810448</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.09444474056690663</v>
+        <v>-0.08766791037198202</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1600746239220117</v>
+        <v>0.1652173756974044</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06560825584326603</v>
+        <v>0.06822684048742504</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>9.110795062106092</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-6.658091488343743</v>
+        <v>-6.658091488343754</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.07963167118144</v>
+        <v>3.907532163531995</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-12.15566708482116</v>
+        <v>-12.35529927679751</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>14.02981190525943</v>
+        <v>14.33487901744283</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.4090134730272355</v>
+        <v>-0.7685105518597674</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>0.120381492406267</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.08797377006952482</v>
+        <v>-0.08797377006952498</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.03890930078279542</v>
+        <v>0.04943768035497682</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1546740481848617</v>
+        <v>-0.158923794216175</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1927257778025421</v>
+        <v>0.200666269097259</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.005317844548206786</v>
+        <v>-0.01165302119722382</v>
       </c>
     </row>
     <row r="28">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.451944837756714</v>
+        <v>-1.202434927414859</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-9.662139150703123</v>
+        <v>-9.682678325532352</v>
       </c>
     </row>
     <row r="30">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.56495518855073</v>
+        <v>11.68676492321456</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>2.770637069063894</v>
+        <v>2.940114212205092</v>
       </c>
     </row>
     <row r="31">
@@ -977,10 +977,10 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01635687222638346</v>
+        <v>-0.01429247339800872</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1136651541134546</v>
+        <v>-0.1128762799444658</v>
       </c>
     </row>
     <row r="33">
@@ -991,10 +991,10 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.1475221831298593</v>
+        <v>0.1496625838840868</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.03506207043307159</v>
+        <v>0.03771201126054634</v>
       </c>
     </row>
     <row r="34">
@@ -1012,7 +1012,7 @@
         <v>-0.06712627386544767</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-4.912703374788507</v>
+        <v>-4.912703374788519</v>
       </c>
     </row>
     <row r="35">
@@ -1023,10 +1023,10 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-7.318397874916006</v>
+        <v>-7.024633263573235</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.19498454107843</v>
+        <v>-11.10859810853496</v>
       </c>
     </row>
     <row r="36">
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.258482119267764</v>
+        <v>8.263045663496621</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.225878822543921</v>
+        <v>1.796873263243882</v>
       </c>
     </row>
     <row r="37">
@@ -1054,7 +1054,7 @@
         <v>-0.0007661167700228581</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.05606902074018861</v>
+        <v>-0.05606902074018873</v>
       </c>
     </row>
     <row r="38">
@@ -1065,10 +1065,10 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.07889667514438178</v>
+        <v>-0.07737722944386238</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1234859242546127</v>
+        <v>-0.1207608146753525</v>
       </c>
     </row>
     <row r="39">
@@ -1079,10 +1079,10 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.08512286926368559</v>
+        <v>0.0994799563429187</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.02375502242200123</v>
+        <v>0.02210626128657352</v>
       </c>
     </row>
     <row r="40">
@@ -1100,7 +1100,7 @@
         <v>5.901505772053694</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>0.1602339048985657</v>
+        <v>0.1602339048985546</v>
       </c>
     </row>
     <row r="41">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.584581633006461</v>
+        <v>-3.40553869529262</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-7.185738490146411</v>
+        <v>-7.915375115224651</v>
       </c>
     </row>
     <row r="42">
@@ -1125,10 +1125,10 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>16.27837014526354</v>
+        <v>16.03357002813382</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>9.671319998234784</v>
+        <v>8.416285658931027</v>
       </c>
     </row>
     <row r="43">
@@ -1142,7 +1142,7 @@
         <v>0.06868393254401862</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>0.001864862145426306</v>
+        <v>0.001864862145426177</v>
       </c>
     </row>
     <row r="44">
@@ -1153,10 +1153,10 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.02802161986332216</v>
+        <v>-0.03653289437704807</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.07966251543205932</v>
+        <v>-0.0866073073408339</v>
       </c>
     </row>
     <row r="45">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.206377631890737</v>
+        <v>0.2025439073678201</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.1220379402327212</v>
+        <v>0.1081151200365442</v>
       </c>
     </row>
     <row r="46">
@@ -1188,7 +1188,7 @@
         <v>6.613810958360745</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-1.548087919728613</v>
+        <v>-1.548087919728591</v>
       </c>
     </row>
     <row r="47">
@@ -1199,10 +1199,10 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>4.101570053189393</v>
+        <v>4.034687294125358</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-4.327613756250329</v>
+        <v>-4.182522167159603</v>
       </c>
     </row>
     <row r="48">
@@ -1213,10 +1213,10 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>8.95705072094488</v>
+        <v>9.042757411335495</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.8500192079459741</v>
+        <v>1.133625677323121</v>
       </c>
     </row>
     <row r="49">
@@ -1230,7 +1230,7 @@
         <v>0.08590056135013381</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.02010665592973174</v>
+        <v>-0.02010665592973145</v>
       </c>
     </row>
     <row r="50">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.05239696674197972</v>
+        <v>0.05141813623038291</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.0550324610596945</v>
+        <v>-0.05367661554723646</v>
       </c>
     </row>
     <row r="51">
@@ -1255,10 +1255,10 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1190477748176437</v>
+        <v>0.1191285296112951</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.01134081540903076</v>
+        <v>0.01480487178270908</v>
       </c>
     </row>
     <row r="52">
